--- a/biology/Botanique/Dryade_à_huit_pétales/Dryade_à_huit_pétales.xlsx
+++ b/biology/Botanique/Dryade_à_huit_pétales/Dryade_à_huit_pétales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dryade_%C3%A0_huit_p%C3%A9tales</t>
+          <t>Dryade_à_huit_pétales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryas octopetala
 La dryade à huit pétales (Dryas octopetala) est une espèce de plantes à fleurs dicotylédones de la famille des Rosaceae. Vivace, à racine pivotante, hermaphrodite, c'est un sous-arbrisseau nain et rampant se propageant facilement sur les substrats caillouteux de montagne ou plaine.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dryade_%C3%A0_huit_p%C3%A9tales</t>
+          <t>Dryade_à_huit_pétales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles, pétiolées, oblongues, dentelées en créneaux et légèrement coriaces sont d'un beau vert brillant sur leur face supérieure et argentées et cotonneuses sur la face inférieure. Elles sont alternes et sinuées à la façon de celles du chêne, d'où son nom Dryas en latin scientifique (du grec drus « chêne ») et son nom français de dryade (ou chênette).
 Les fleurs longuement pédiculées peuvent atteindre 3 cm de diamètre. Elles sont blanches avec de nombreuses étamines. La corolle comporte huit pétales, d'où son nom vernaculaire francophone.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dryade_%C3%A0_huit_p%C3%A9tales</t>
+          <t>Dryade_à_huit_pétales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Débris rocheux et pâturages pierreux des montagnes de l'Alaska, l'Islande, les Pyrénées, Alpes, Jura, Apennins et Europe centrale, toundra du Svalbard. Entre 1100 et 2 500 m d'altitude. En plein soleil, sur terrain calcaire.
 Pelouses basophiles arctico-alpines climaciques.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dryade_%C3%A0_huit_p%C3%A9tales</t>
+          <t>Dryade_à_huit_pétales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle sert à confectionner une tisane d'où ses noms de thé des Alpes ou thé suisse.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dryade_%C3%A0_huit_p%C3%A9tales</t>
+          <t>Dryade_à_huit_pétales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : fleur solitaire latérale
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dryade_%C3%A0_huit_p%C3%A9tales</t>
+          <t>Dryade_à_huit_pétales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Bioindicateur de réchauffements passés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fleur a donné son nom aux trois oscillations froides du Tardiglaciaire, ultime subdivision paléoclimatique de la dernière glaciation, car son pollen est abondant dans les sédiments de ces époques :
 le Dryas ancien (Oldest Dryas)
